--- a/bsc assay data.xlsx
+++ b/bsc assay data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/Bush-stone-curlew-personality-and-performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3722" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA6A5F66-DEFA-46E7-A7FC-C4C11F660B6F}"/>
+  <xr:revisionPtr revIDLastSave="4088" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59BEA8A0-C4BD-4B77-B106-691E569C99B9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="3" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="393">
   <si>
     <t>Pen</t>
   </si>
@@ -1211,13 +1211,16 @@
     <t>Food bowls present (no non-food recordings)</t>
   </si>
   <si>
-    <t>Alert, standing but not relaxed. May have returned to upright from another pose. May have a stiffer pose, holding neck extended forward or up, have flatter feathers or be looking around.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Standing. No posturing. Relaxed pose. Upright body and head. Feathers loose or lightly fluffed, not pressed against body. </t>
   </si>
   <si>
     <t>Pen33_5</t>
+  </si>
+  <si>
+    <t>Raining</t>
+  </si>
+  <si>
+    <t>Alert, standing but not relaxed. May have returned to upright from another pose. May have a stiffer pose, holding neck extended forward or up, have flatter feathers or be looking around, turning the head from side to side.</t>
   </si>
 </sst>
 </file>
@@ -6768,7 +6771,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" ref="G66:G119" si="14">E66+F66</f>
+        <f t="shared" ref="G66:G115" si="14">E66+F66</f>
         <v>0.59015046296296292</v>
       </c>
       <c r="H66" s="2">
@@ -6778,7 +6781,7 @@
         <v>5.7870370370370366E-5</v>
       </c>
       <c r="J66" s="2">
-        <f t="shared" ref="J66:J119" si="15">H66+I66</f>
+        <f t="shared" ref="J66:J115" si="15">H66+I66</f>
         <v>0.60231481481481486</v>
       </c>
       <c r="K66" s="2">
@@ -8663,8 +8666,8 @@
   <dimension ref="A1:BN33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA12" sqref="AA12"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9520,7 +9523,7 @@
         <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E22" s="2">
         <v>0.55733796296296301</v>
@@ -9717,7 +9720,7 @@
         <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E23" s="2">
         <v>0.55733796296296301</v>
@@ -9920,6 +9923,186 @@
       <c r="E24" s="2">
         <v>0.5761574074074074</v>
       </c>
+      <c r="F24" t="s">
+        <v>376</v>
+      </c>
+      <c r="G24" t="s">
+        <v>376</v>
+      </c>
+      <c r="H24" t="s">
+        <v>376</v>
+      </c>
+      <c r="I24" t="s">
+        <v>376</v>
+      </c>
+      <c r="J24" t="s">
+        <v>376</v>
+      </c>
+      <c r="K24" t="s">
+        <v>376</v>
+      </c>
+      <c r="L24" t="s">
+        <v>376</v>
+      </c>
+      <c r="M24" t="s">
+        <v>376</v>
+      </c>
+      <c r="N24" t="s">
+        <v>376</v>
+      </c>
+      <c r="O24" t="s">
+        <v>376</v>
+      </c>
+      <c r="P24" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>376</v>
+      </c>
+      <c r="R24" t="s">
+        <v>376</v>
+      </c>
+      <c r="S24" t="s">
+        <v>376</v>
+      </c>
+      <c r="T24" t="s">
+        <v>376</v>
+      </c>
+      <c r="U24" t="s">
+        <v>376</v>
+      </c>
+      <c r="V24" t="s">
+        <v>376</v>
+      </c>
+      <c r="W24" t="s">
+        <v>376</v>
+      </c>
+      <c r="X24" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>376</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>376</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>376</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>376</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>376</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>376</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>376</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>376</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>376</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>376</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>376</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>376</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>376</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>376</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="25" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A25">
@@ -9937,6 +10120,186 @@
       <c r="E25" s="2">
         <v>0.5761574074074074</v>
       </c>
+      <c r="F25" t="s">
+        <v>376</v>
+      </c>
+      <c r="G25" t="s">
+        <v>376</v>
+      </c>
+      <c r="H25" t="s">
+        <v>376</v>
+      </c>
+      <c r="I25" t="s">
+        <v>376</v>
+      </c>
+      <c r="J25" t="s">
+        <v>376</v>
+      </c>
+      <c r="K25" t="s">
+        <v>376</v>
+      </c>
+      <c r="L25" t="s">
+        <v>376</v>
+      </c>
+      <c r="M25" t="s">
+        <v>376</v>
+      </c>
+      <c r="N25" t="s">
+        <v>376</v>
+      </c>
+      <c r="O25" t="s">
+        <v>376</v>
+      </c>
+      <c r="P25" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>376</v>
+      </c>
+      <c r="R25" t="s">
+        <v>376</v>
+      </c>
+      <c r="S25" t="s">
+        <v>184</v>
+      </c>
+      <c r="T25" t="s">
+        <v>184</v>
+      </c>
+      <c r="U25" t="s">
+        <v>184</v>
+      </c>
+      <c r="V25" t="s">
+        <v>184</v>
+      </c>
+      <c r="W25" t="s">
+        <v>376</v>
+      </c>
+      <c r="X25" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>376</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>376</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>376</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>376</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>376</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>376</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>376</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>376</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>376</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>376</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>376</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>376</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>376</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>376</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>376</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>376</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>376</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>376</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>376</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>376</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>376</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>376</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>376</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>376</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A26">
@@ -9954,6 +10317,186 @@
       <c r="E26" s="2">
         <v>0.5761574074074074</v>
       </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" t="s">
+        <v>187</v>
+      </c>
+      <c r="N26" t="s">
+        <v>187</v>
+      </c>
+      <c r="O26" t="s">
+        <v>187</v>
+      </c>
+      <c r="P26" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>69</v>
+      </c>
+      <c r="R26" t="s">
+        <v>69</v>
+      </c>
+      <c r="S26" t="s">
+        <v>186</v>
+      </c>
+      <c r="T26" t="s">
+        <v>186</v>
+      </c>
+      <c r="U26" t="s">
+        <v>69</v>
+      </c>
+      <c r="V26" t="s">
+        <v>186</v>
+      </c>
+      <c r="W26" t="s">
+        <v>69</v>
+      </c>
+      <c r="X26" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>208</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>208</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>190</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>190</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>190</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>190</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>69</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>69</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="27" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A27">
@@ -9971,7 +10514,189 @@
       <c r="E27" s="2">
         <v>0.57357638888888884</v>
       </c>
-      <c r="BN27" s="2"/>
+      <c r="F27" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" t="s">
+        <v>186</v>
+      </c>
+      <c r="H27" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J27" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" t="s">
+        <v>186</v>
+      </c>
+      <c r="L27" t="s">
+        <v>186</v>
+      </c>
+      <c r="M27" t="s">
+        <v>186</v>
+      </c>
+      <c r="N27" t="s">
+        <v>186</v>
+      </c>
+      <c r="O27" t="s">
+        <v>186</v>
+      </c>
+      <c r="P27" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>186</v>
+      </c>
+      <c r="R27" t="s">
+        <v>186</v>
+      </c>
+      <c r="S27" t="s">
+        <v>186</v>
+      </c>
+      <c r="T27" t="s">
+        <v>186</v>
+      </c>
+      <c r="U27" t="s">
+        <v>186</v>
+      </c>
+      <c r="V27" t="s">
+        <v>186</v>
+      </c>
+      <c r="W27" t="s">
+        <v>186</v>
+      </c>
+      <c r="X27" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN27" s="2" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A28">
@@ -9989,7 +10714,189 @@
       <c r="E28" s="2">
         <v>0.57954861111111111</v>
       </c>
-      <c r="BN28" s="2"/>
+      <c r="F28" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J28" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" t="s">
+        <v>186</v>
+      </c>
+      <c r="L28" t="s">
+        <v>186</v>
+      </c>
+      <c r="M28" t="s">
+        <v>186</v>
+      </c>
+      <c r="N28" t="s">
+        <v>186</v>
+      </c>
+      <c r="O28" t="s">
+        <v>186</v>
+      </c>
+      <c r="P28" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>186</v>
+      </c>
+      <c r="R28" t="s">
+        <v>186</v>
+      </c>
+      <c r="S28" t="s">
+        <v>186</v>
+      </c>
+      <c r="T28" t="s">
+        <v>185</v>
+      </c>
+      <c r="U28" t="s">
+        <v>185</v>
+      </c>
+      <c r="V28" t="s">
+        <v>185</v>
+      </c>
+      <c r="W28" t="s">
+        <v>69</v>
+      </c>
+      <c r="X28" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>187</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>187</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN28" s="2" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="29" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A29">
@@ -10007,7 +10914,189 @@
       <c r="E29" s="2">
         <v>0.57518518518518513</v>
       </c>
-      <c r="BN29" s="2"/>
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" t="s">
+        <v>186</v>
+      </c>
+      <c r="K29" t="s">
+        <v>186</v>
+      </c>
+      <c r="L29" t="s">
+        <v>186</v>
+      </c>
+      <c r="M29" t="s">
+        <v>186</v>
+      </c>
+      <c r="N29" t="s">
+        <v>186</v>
+      </c>
+      <c r="O29" t="s">
+        <v>186</v>
+      </c>
+      <c r="P29" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>186</v>
+      </c>
+      <c r="R29" t="s">
+        <v>208</v>
+      </c>
+      <c r="S29" t="s">
+        <v>208</v>
+      </c>
+      <c r="T29" t="s">
+        <v>186</v>
+      </c>
+      <c r="U29" t="s">
+        <v>186</v>
+      </c>
+      <c r="V29" t="s">
+        <v>207</v>
+      </c>
+      <c r="W29" t="s">
+        <v>207</v>
+      </c>
+      <c r="X29" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>185</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC29" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>69</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>187</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK29" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL29" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN29" s="2" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A30">
@@ -10025,6 +11114,186 @@
       <c r="E30" s="2">
         <v>0.55290509259259257</v>
       </c>
+      <c r="F30" t="s">
+        <v>376</v>
+      </c>
+      <c r="G30" t="s">
+        <v>376</v>
+      </c>
+      <c r="H30" t="s">
+        <v>376</v>
+      </c>
+      <c r="I30" t="s">
+        <v>376</v>
+      </c>
+      <c r="J30" t="s">
+        <v>376</v>
+      </c>
+      <c r="K30" t="s">
+        <v>376</v>
+      </c>
+      <c r="L30" t="s">
+        <v>376</v>
+      </c>
+      <c r="M30" t="s">
+        <v>376</v>
+      </c>
+      <c r="N30" t="s">
+        <v>376</v>
+      </c>
+      <c r="O30" t="s">
+        <v>376</v>
+      </c>
+      <c r="P30" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>376</v>
+      </c>
+      <c r="R30" t="s">
+        <v>376</v>
+      </c>
+      <c r="S30" t="s">
+        <v>376</v>
+      </c>
+      <c r="T30" t="s">
+        <v>376</v>
+      </c>
+      <c r="U30" t="s">
+        <v>376</v>
+      </c>
+      <c r="V30" t="s">
+        <v>376</v>
+      </c>
+      <c r="W30" t="s">
+        <v>186</v>
+      </c>
+      <c r="X30" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ30" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK30" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL30" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="31" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A31">
@@ -10042,6 +11311,186 @@
       <c r="E31" s="2">
         <v>0.56587962962962968</v>
       </c>
+      <c r="F31" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H31" t="s">
+        <v>184</v>
+      </c>
+      <c r="I31" t="s">
+        <v>186</v>
+      </c>
+      <c r="J31" t="s">
+        <v>186</v>
+      </c>
+      <c r="K31" t="s">
+        <v>186</v>
+      </c>
+      <c r="L31" t="s">
+        <v>186</v>
+      </c>
+      <c r="M31" t="s">
+        <v>186</v>
+      </c>
+      <c r="N31" t="s">
+        <v>186</v>
+      </c>
+      <c r="O31" t="s">
+        <v>184</v>
+      </c>
+      <c r="P31" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>186</v>
+      </c>
+      <c r="R31" t="s">
+        <v>184</v>
+      </c>
+      <c r="S31" t="s">
+        <v>184</v>
+      </c>
+      <c r="T31" t="s">
+        <v>186</v>
+      </c>
+      <c r="U31" t="s">
+        <v>186</v>
+      </c>
+      <c r="V31" t="s">
+        <v>184</v>
+      </c>
+      <c r="W31" t="s">
+        <v>184</v>
+      </c>
+      <c r="X31" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>208</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>208</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>208</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>208</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>208</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>208</v>
+      </c>
+      <c r="BE31" t="s">
+        <v>208</v>
+      </c>
+      <c r="BF31" t="s">
+        <v>208</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>208</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>208</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>208</v>
+      </c>
+      <c r="BJ31" t="s">
+        <v>208</v>
+      </c>
+      <c r="BK31" t="s">
+        <v>208</v>
+      </c>
+      <c r="BL31" t="s">
+        <v>208</v>
+      </c>
+      <c r="BM31" t="s">
+        <v>208</v>
+      </c>
       <c r="BN31" s="2"/>
     </row>
     <row r="32" spans="1:66" x14ac:dyDescent="0.35">
@@ -10060,6 +11509,186 @@
       <c r="E32" s="2">
         <v>0.56521990740740746</v>
       </c>
+      <c r="F32" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" t="s">
+        <v>208</v>
+      </c>
+      <c r="H32" t="s">
+        <v>377</v>
+      </c>
+      <c r="I32" t="s">
+        <v>377</v>
+      </c>
+      <c r="J32" t="s">
+        <v>377</v>
+      </c>
+      <c r="K32" t="s">
+        <v>377</v>
+      </c>
+      <c r="L32" t="s">
+        <v>186</v>
+      </c>
+      <c r="M32" t="s">
+        <v>186</v>
+      </c>
+      <c r="N32" t="s">
+        <v>69</v>
+      </c>
+      <c r="O32" t="s">
+        <v>186</v>
+      </c>
+      <c r="P32" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>187</v>
+      </c>
+      <c r="R32" t="s">
+        <v>187</v>
+      </c>
+      <c r="S32" t="s">
+        <v>187</v>
+      </c>
+      <c r="T32" t="s">
+        <v>187</v>
+      </c>
+      <c r="U32" t="s">
+        <v>187</v>
+      </c>
+      <c r="V32" t="s">
+        <v>69</v>
+      </c>
+      <c r="W32" t="s">
+        <v>186</v>
+      </c>
+      <c r="X32" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>377</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>377</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>377</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>208</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>187</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>69</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>208</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>189</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="33" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A33">
@@ -10076,6 +11705,186 @@
       </c>
       <c r="E33" s="2">
         <v>0.55215277777777783</v>
+      </c>
+      <c r="F33" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" t="s">
+        <v>186</v>
+      </c>
+      <c r="I33" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" t="s">
+        <v>186</v>
+      </c>
+      <c r="L33" t="s">
+        <v>69</v>
+      </c>
+      <c r="M33" t="s">
+        <v>69</v>
+      </c>
+      <c r="N33" t="s">
+        <v>69</v>
+      </c>
+      <c r="O33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>187</v>
+      </c>
+      <c r="R33" t="s">
+        <v>187</v>
+      </c>
+      <c r="S33" t="s">
+        <v>187</v>
+      </c>
+      <c r="T33" t="s">
+        <v>187</v>
+      </c>
+      <c r="U33" t="s">
+        <v>187</v>
+      </c>
+      <c r="V33" t="s">
+        <v>187</v>
+      </c>
+      <c r="W33" t="s">
+        <v>187</v>
+      </c>
+      <c r="X33" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>187</v>
       </c>
       <c r="BN33" s="2"/>
     </row>
@@ -10094,7 +11903,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10123,7 +11932,7 @@
         <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -10131,7 +11940,7 @@
         <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
